--- a/cmd/roishot/testdata/test.xlsx
+++ b/cmd/roishot/testdata/test.xlsx
@@ -278,43 +278,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0001.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0002.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0003.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0004.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0005.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0006.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0007.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0008.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0009.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0010.png</t>
+    <t>/vfx/dev/kybin/project/Test/thumbnail/CG0001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vfx/dev/kybin/project/Test/thumbnail/CG0002.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vfx/dev/kybin/project/Test/thumbnail/CG0003.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vfx/dev/kybin/project/Test/thumbnail/CG0004.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vfx/dev/kybin/project/Test/thumbnail/CG0005.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vfx/dev/kybin/project/Test/thumbnail/CG0006.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vfx/dev/kybin/project/Test/thumbnail/CG0007.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vfx/dev/kybin/project/Test/thumbnail/CG0008.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vfx/dev/kybin/project/Test/thumbnail/CG0009.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vfx/dev/kybin/project/Test/thumbnail/CG0010.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +671,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F18" sqref="F17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/cmd/roishot/testdata/test.xlsx
+++ b/cmd/roishot/testdata/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>scene</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,50 @@
   </si>
   <si>
     <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumbnail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0002.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0003.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0004.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0005.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0006.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0007.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0008.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0009.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z:\VFX\dev\kybin\project\Test\thumbnail\CG0010.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,6 +369,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -621,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -636,9 +683,10 @@
     <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -669,8 +717,11 @@
       <c r="J1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -698,8 +749,11 @@
       <c r="I2" s="2">
         <v>2073</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -730,8 +784,11 @@
       <c r="J3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -759,8 +816,11 @@
       <c r="I4" s="2">
         <v>363</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -788,8 +848,11 @@
       <c r="I5" s="2">
         <v>1546</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -820,8 +883,11 @@
       <c r="J6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -849,8 +915,11 @@
       <c r="I7" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -881,8 +950,11 @@
       <c r="J8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -910,8 +982,11 @@
       <c r="I9" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -942,8 +1017,11 @@
       <c r="J10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -974,26 +1052,33 @@
       <c r="J11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cmd/roishot/testdata/test.xlsx
+++ b/cmd/roishot/testdata/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <t>scene</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,14 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카페,휘핑크림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,6 +307,22 @@
   </si>
   <si>
     <t>/vfx/dev/kybin/project/Test/thumbnail/CG0010.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로이,카페,휘핑크림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로이,공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로이,가나다라마바사아자차카타파하.고노도로모보소호조초코토포호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +679,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F17:F18"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -712,13 +720,13 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
         <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -749,8 +757,11 @@
       <c r="I2" s="2">
         <v>2073</v>
       </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
       <c r="K2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -782,10 +793,10 @@
         <v>205</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -816,8 +827,11 @@
       <c r="I4" s="2">
         <v>363</v>
       </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
       <c r="K4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -848,8 +862,11 @@
       <c r="I5" s="2">
         <v>1546</v>
       </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
       <c r="K5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -884,7 +901,7 @@
         <v>63</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -915,8 +932,11 @@
       <c r="I7" s="2">
         <v>92</v>
       </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
       <c r="K7" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -948,10 +968,10 @@
         <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -983,7 +1003,7 @@
         <v>72</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1018,7 +1038,7 @@
         <v>64</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1053,7 +1073,7 @@
         <v>63</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:11">
